--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1072672.652697543</v>
+        <v>1100137.996662545</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10356212.29808314</v>
+        <v>10356212.29808315</v>
       </c>
     </row>
     <row r="8">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>178.3639336812322</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>186.4742147058687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.2703021322008</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>107.8244047309203</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
         <v>105.5870378728063</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>179.9684853493247</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717002</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>188.3766098845153</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>21.69126064627581</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
         <v>21.30239922246437</v>
@@ -1742,7 +1742,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355332</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.02173393634982</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3328844140846</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>185.3862736245802</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>175.5111531220128</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>100.6949344342295</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>206.9146911261644</v>
@@ -1903,7 +1903,7 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>85.22504708635316</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
         <v>93.13436112172583</v>
@@ -1979,7 +1979,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8112657109832</v>
+        <v>175.6705644579972</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>183.6247094797338</v>
+        <v>77.6936907754707</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>308.3243723754828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>125.8038171371896</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>42.99365986874019</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741892</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>99.16385406346845</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.12216978411809</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2292,16 +2292,16 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>31.5999997112526</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>411.6062992654567</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>153.4485946368104</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.12456277859413</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>54.77729597176067</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>264.5428163975799</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.30157618674988</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>124.8304706806063</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>172.3018822463893</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>214.445244647204</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>150.6753857931685</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>144.8720363095763</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>60.74121353476722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>40.14719698786992</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>331.0459783569028</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>28.23903672517743</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>55.54146481592871</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>83.97561525252513</v>
+        <v>236.6220103586343</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.7810918193339</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>99.95527223866874</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S37" t="n">
         <v>195.1205252336517</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,16 +3505,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>196.563828830433</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>316.8872795590306</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,7 +3599,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
-        <v>142.0522311736832</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U39" t="n">
         <v>225.8112657109832</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>45.95644812104942</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.8610019386828</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>89.56350023107265</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>267.5246899959969</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>124.7874829717002</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>198.9065892675927</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>135.7843460044151</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>220.8610019386828</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>28.53344724769747</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>181.5157697726458</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717002</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>108.5432336176126</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>42.99365986873975</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741847</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>76.16877138843644</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>183.6247094797335</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1351.192089706299</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="C11" t="n">
-        <v>982.2295727658873</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D11" t="n">
-        <v>623.9638741591368</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E11" t="n">
-        <v>238.1756215608926</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F11" t="n">
-        <v>238.1756215608926</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G11" t="n">
         <v>49.81782892870198</v>
@@ -5044,7 +5044,7 @@
         <v>181.1756535819833</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799485</v>
       </c>
       <c r="L11" t="n">
         <v>772.8691714549145</v>
@@ -5056,7 +5056,7 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317522</v>
       </c>
       <c r="P11" t="n">
         <v>2299.347327962849</v>
@@ -5080,13 +5080,13 @@
         <v>2111.2576880315</v>
       </c>
       <c r="W11" t="n">
-        <v>2111.2576880315</v>
+        <v>1758.489032761386</v>
       </c>
       <c r="X11" t="n">
-        <v>1737.791929770421</v>
+        <v>1385.023274500307</v>
       </c>
       <c r="Y11" t="n">
-        <v>1737.791929770421</v>
+        <v>1385.023274500307</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K12" t="n">
-        <v>413.7755328491961</v>
+        <v>413.775532849196</v>
       </c>
       <c r="L12" t="n">
-        <v>701.7398160318586</v>
+        <v>1030.271165841883</v>
       </c>
       <c r="M12" t="n">
-        <v>1057.13742028053</v>
+        <v>1385.668770090555</v>
       </c>
       <c r="N12" t="n">
-        <v>1436.349986510835</v>
+        <v>1764.881336320859</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232466</v>
+        <v>2089.566954034616</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994176</v>
+        <v>2330.822720796325</v>
       </c>
       <c r="Q12" t="n">
         <v>2490.891446435099</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.374364595189</v>
+        <v>583.2960761966489</v>
       </c>
       <c r="C13" t="n">
-        <v>471.374364595189</v>
+        <v>414.359893268742</v>
       </c>
       <c r="D13" t="n">
-        <v>471.374364595189</v>
+        <v>414.359893268742</v>
       </c>
       <c r="E13" t="n">
-        <v>471.374364595189</v>
+        <v>414.359893268742</v>
       </c>
       <c r="F13" t="n">
-        <v>324.4844170972787</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="G13" t="n">
-        <v>156.4714025375973</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H13" t="n">
         <v>156.4714025375973</v>
@@ -5199,16 +5199,16 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J13" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M13" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5217,34 +5217,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q13" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R13" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S13" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="T13" t="n">
-        <v>1386.128447054742</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U13" t="n">
-        <v>1097.008661383963</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="V13" t="n">
-        <v>1097.008661383963</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="W13" t="n">
-        <v>807.5914913470028</v>
+        <v>992.9340919249059</v>
       </c>
       <c r="X13" t="n">
-        <v>807.5914913470028</v>
+        <v>764.9445410268886</v>
       </c>
       <c r="Y13" t="n">
-        <v>586.7989122034727</v>
+        <v>764.9445410268886</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1005.633815025131</v>
+        <v>1192.809983127841</v>
       </c>
       <c r="C14" t="n">
-        <v>1005.633815025131</v>
+        <v>823.8474661874289</v>
       </c>
       <c r="D14" t="n">
-        <v>647.3681164183802</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="E14" t="n">
         <v>465.5817675806784</v>
@@ -5305,25 +5305,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326144</v>
+        <v>2300.612042511345</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.838745326144</v>
+        <v>2300.612042511345</v>
       </c>
       <c r="V14" t="n">
-        <v>2155.838745326144</v>
+        <v>1969.549155167774</v>
       </c>
       <c r="W14" t="n">
-        <v>2155.838745326144</v>
+        <v>1969.549155167774</v>
       </c>
       <c r="X14" t="n">
-        <v>1782.372987065064</v>
+        <v>1969.549155167774</v>
       </c>
       <c r="Y14" t="n">
-        <v>1392.233655089252</v>
+        <v>1579.409823191962</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938151</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207001</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G15" t="n">
-        <v>93.24576819005568</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
         <v>71.3354039008882</v>
@@ -5357,25 +5357,25 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9310127909883</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>292.6406182091635</v>
+        <v>583.0451988570703</v>
       </c>
       <c r="L15" t="n">
-        <v>580.6049013918259</v>
+        <v>871.0094820397328</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.100534384513</v>
+        <v>1226.407086288404</v>
       </c>
       <c r="N15" t="n">
-        <v>1813.596167377199</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.281785090956</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.537551852665</v>
+        <v>2171.561036994175</v>
       </c>
       <c r="Q15" t="n">
         <v>2490.891446435098</v>
@@ -5390,19 +5390,19 @@
         <v>2160.447087779</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>548.0093733932827</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="C16" t="n">
-        <v>548.0093733932827</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="D16" t="n">
-        <v>512.6338845686869</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E16" t="n">
-        <v>364.7207909862938</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F16" t="n">
         <v>217.8308434883834</v>
@@ -5463,25 +5463,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204926</v>
+        <v>1421.961505957875</v>
       </c>
       <c r="T16" t="n">
-        <v>1609.220368204926</v>
+        <v>1421.961505957875</v>
       </c>
       <c r="U16" t="n">
-        <v>1320.100582534148</v>
+        <v>1132.841720287097</v>
       </c>
       <c r="V16" t="n">
-        <v>1065.416094328261</v>
+        <v>878.1572320812099</v>
       </c>
       <c r="W16" t="n">
-        <v>775.9989242913</v>
+        <v>588.7400620442493</v>
       </c>
       <c r="X16" t="n">
-        <v>548.0093733932827</v>
+        <v>588.7400620442493</v>
       </c>
       <c r="Y16" t="n">
-        <v>548.0093733932827</v>
+        <v>367.9474829007191</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1573.820201863716</v>
+        <v>954.3300375284023</v>
       </c>
       <c r="C17" t="n">
-        <v>1204.857684923304</v>
+        <v>585.3675205879906</v>
       </c>
       <c r="D17" t="n">
-        <v>846.5919863165539</v>
+        <v>227.1018219812401</v>
       </c>
       <c r="E17" t="n">
-        <v>460.8037337183096</v>
+        <v>227.1018219812401</v>
       </c>
       <c r="F17" t="n">
-        <v>49.81782892870198</v>
+        <v>227.1018219812401</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J17" t="n">
         <v>181.1756535819834</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799485</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L17" t="n">
         <v>772.8691714549147</v>
@@ -5527,40 +5527,40 @@
         <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317522</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962847</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S17" t="n">
-        <v>2389.179391451029</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="T17" t="n">
-        <v>2180.174652939751</v>
+        <v>2281.88670792382</v>
       </c>
       <c r="U17" t="n">
-        <v>1926.58885713383</v>
+        <v>2028.300912117899</v>
       </c>
       <c r="V17" t="n">
-        <v>1926.58885713383</v>
+        <v>1697.238024774328</v>
       </c>
       <c r="W17" t="n">
-        <v>1573.820201863716</v>
+        <v>1344.469369504214</v>
       </c>
       <c r="X17" t="n">
-        <v>1573.820201863716</v>
+        <v>1344.469369504214</v>
       </c>
       <c r="Y17" t="n">
-        <v>1573.820201863716</v>
+        <v>954.3300375284023</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416497</v>
+        <v>909.7854722244625</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605228</v>
+        <v>735.3324429433355</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992715</v>
+        <v>586.3980332820843</v>
       </c>
       <c r="E18" t="n">
-        <v>376.513405293816</v>
+        <v>427.1605782766288</v>
       </c>
       <c r="F18" t="n">
-        <v>229.978847320701</v>
+        <v>280.6260203035138</v>
       </c>
       <c r="G18" t="n">
         <v>143.8929411728695</v>
       </c>
       <c r="H18" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J18" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310206</v>
       </c>
       <c r="K18" t="n">
-        <v>288.9454078621912</v>
+        <v>583.0451988570699</v>
       </c>
       <c r="L18" t="n">
-        <v>576.9096910448537</v>
+        <v>871.0094820397323</v>
       </c>
       <c r="M18" t="n">
-        <v>1193.405324037541</v>
+        <v>1226.407086288404</v>
       </c>
       <c r="N18" t="n">
-        <v>1572.617890267845</v>
+        <v>1605.619652518708</v>
       </c>
       <c r="O18" t="n">
-        <v>2138.281785090957</v>
+        <v>1930.305270232465</v>
       </c>
       <c r="P18" t="n">
-        <v>2379.537551852666</v>
+        <v>2171.561036994174</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087778999</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192149</v>
+        <v>1983.002073174961</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960406</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026672</v>
+        <v>1285.761108009484</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261718</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.81782892870198</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="C19" t="n">
-        <v>49.81782892870198</v>
+        <v>662.7505239810226</v>
       </c>
       <c r="D19" t="n">
-        <v>49.81782892870198</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E19" t="n">
-        <v>49.81782892870198</v>
+        <v>364.7207909862937</v>
       </c>
       <c r="F19" t="n">
-        <v>49.81782892870198</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477624</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490677</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.03700742479</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U19" t="n">
-        <v>1189.03700742479</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="V19" t="n">
-        <v>934.3525192189032</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="W19" t="n">
-        <v>644.9353491819427</v>
+        <v>1319.803198167965</v>
       </c>
       <c r="X19" t="n">
-        <v>416.9457982839253</v>
+        <v>1091.813647269948</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.4662937589417</v>
+        <v>1013.335171739169</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>793.8717801336967</v>
+        <v>1214.638553536408</v>
       </c>
       <c r="C20" t="n">
-        <v>793.8717801336967</v>
+        <v>845.676036595996</v>
       </c>
       <c r="D20" t="n">
-        <v>435.6060815269462</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="E20" t="n">
-        <v>49.81782892870196</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="F20" t="n">
-        <v>49.81782892870196</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I20" t="n">
         <v>49.81782892870196</v>
@@ -5785,19 +5785,19 @@
         <v>2364.843483837421</v>
       </c>
       <c r="U20" t="n">
-        <v>2237.768921072583</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="V20" t="n">
-        <v>1906.706033729012</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="W20" t="n">
-        <v>1553.937378458898</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="X20" t="n">
-        <v>1180.471620197819</v>
+        <v>1991.377725576341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1180.471620197819</v>
+        <v>1601.238393600529</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938151</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>229.9788473207001</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
-        <v>93.24576819005568</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870196</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870196</v>
       </c>
       <c r="J21" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K21" t="n">
-        <v>288.9454078621912</v>
+        <v>583.04519885707</v>
       </c>
       <c r="L21" t="n">
-        <v>787.1759816192936</v>
+        <v>871.0094820397325</v>
       </c>
       <c r="M21" t="n">
-        <v>1142.573585867965</v>
+        <v>1226.407086288404</v>
       </c>
       <c r="N21" t="n">
-        <v>1521.78615209827</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.281785090956</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.537551852665</v>
+        <v>2171.561036994175</v>
       </c>
       <c r="Q21" t="n">
         <v>2490.891446435098</v>
@@ -5858,25 +5858,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>612.7993937237055</v>
+        <v>424.4401544045949</v>
       </c>
       <c r="C22" t="n">
-        <v>612.7993937237055</v>
+        <v>424.4401544045949</v>
       </c>
       <c r="D22" t="n">
-        <v>512.6338845686869</v>
+        <v>424.4401544045949</v>
       </c>
       <c r="E22" t="n">
         <v>364.7207909862938</v>
@@ -5940,22 +5940,22 @@
         <v>1412.128928574975</v>
       </c>
       <c r="T22" t="n">
-        <v>1412.128928574975</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="U22" t="n">
-        <v>1123.009142904196</v>
+        <v>899.9172217540118</v>
       </c>
       <c r="V22" t="n">
-        <v>1123.009142904196</v>
+        <v>645.232733548125</v>
       </c>
       <c r="W22" t="n">
-        <v>833.5919728672357</v>
+        <v>645.232733548125</v>
       </c>
       <c r="X22" t="n">
-        <v>833.5919728672357</v>
+        <v>645.232733548125</v>
       </c>
       <c r="Y22" t="n">
-        <v>612.7993937237055</v>
+        <v>424.4401544045949</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1632.791191867207</v>
+        <v>884.7619617647158</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.828674926796</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="D23" t="n">
-        <v>1263.828674926796</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="E23" t="n">
-        <v>878.0404223285514</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="F23" t="n">
         <v>467.0545175389437</v>
@@ -5992,49 +5992,49 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382138</v>
+        <v>437.3637422189612</v>
       </c>
       <c r="L23" t="n">
-        <v>774.34192141318</v>
+        <v>781.4474136939275</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556536</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.925570201861</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.084201475011</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T23" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.47624323941</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="X23" t="n">
-        <v>2409.530363907141</v>
+        <v>1271.361801828838</v>
       </c>
       <c r="Y23" t="n">
-        <v>2019.391031931329</v>
+        <v>1271.361801828838</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>677.068867449914</v>
+        <v>656.6826967703356</v>
       </c>
       <c r="L24" t="n">
-        <v>965.0331506325765</v>
+        <v>944.6469799529981</v>
       </c>
       <c r="M24" t="n">
-        <v>1320.430754881248</v>
+        <v>1300.04458420167</v>
       </c>
       <c r="N24" t="n">
-        <v>1699.643321111553</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O24" t="n">
-        <v>2024.32893882531</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P24" t="n">
-        <v>2265.584705587019</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.1464423075133</v>
+        <v>253.5111283765551</v>
       </c>
       <c r="C25" t="n">
-        <v>496.2102593796064</v>
+        <v>253.5111283765551</v>
       </c>
       <c r="D25" t="n">
-        <v>346.0936199672707</v>
+        <v>253.5111283765551</v>
       </c>
       <c r="E25" t="n">
-        <v>198.1805263848776</v>
+        <v>253.5111283765551</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696727</v>
+        <v>106.6211808786447</v>
       </c>
       <c r="G25" t="n">
         <v>51.29057888696727</v>
@@ -6174,25 +6174,25 @@
         <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>1506.915933070317</v>
+        <v>1309.824493440365</v>
       </c>
       <c r="T25" t="n">
-        <v>1283.824011920132</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U25" t="n">
-        <v>994.7042262493538</v>
+        <v>797.6127866194025</v>
       </c>
       <c r="V25" t="n">
-        <v>740.019738043467</v>
+        <v>542.9282984135157</v>
       </c>
       <c r="W25" t="n">
-        <v>740.019738043467</v>
+        <v>253.5111283765551</v>
       </c>
       <c r="X25" t="n">
-        <v>740.019738043467</v>
+        <v>253.5111283765551</v>
       </c>
       <c r="Y25" t="n">
-        <v>740.019738043467</v>
+        <v>253.5111283765551</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1236.306120935302</v>
+        <v>1846.866216940671</v>
       </c>
       <c r="C26" t="n">
-        <v>1236.306120935302</v>
+        <v>1846.866216940671</v>
       </c>
       <c r="D26" t="n">
-        <v>878.0404223285514</v>
+        <v>1488.60051833392</v>
       </c>
       <c r="E26" t="n">
-        <v>878.0404223285514</v>
+        <v>1102.812265735676</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0545175389437</v>
+        <v>691.8263609460687</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696727</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270498</v>
       </c>
       <c r="I26" t="n">
         <v>51.29057888696727</v>
@@ -6253,25 +6253,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2502.608160321343</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2293.603421810066</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>2293.603421810066</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V26" t="n">
-        <v>1962.540534466496</v>
+        <v>2233.466057004793</v>
       </c>
       <c r="W26" t="n">
-        <v>1609.771879196382</v>
+        <v>2233.466057004793</v>
       </c>
       <c r="X26" t="n">
-        <v>1236.306120935302</v>
+        <v>2233.466057004793</v>
       </c>
       <c r="Y26" t="n">
-        <v>1236.306120935302</v>
+        <v>2233.466057004793</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>634.2717485637564</v>
+        <v>656.6826967703356</v>
       </c>
       <c r="L27" t="n">
-        <v>922.2360317464189</v>
+        <v>944.6469799529981</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.63363599509</v>
+        <v>1300.04458420167</v>
       </c>
       <c r="N27" t="n">
-        <v>1656.846202225395</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.531819939152</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2222.787586700861</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>664.4478003127563</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="C28" t="n">
-        <v>495.5116173848494</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="D28" t="n">
-        <v>345.3949779725136</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="E28" t="n">
-        <v>345.3949779725136</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F28" t="n">
-        <v>345.3949779725136</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G28" t="n">
-        <v>177.3819634128322</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H28" t="n">
         <v>51.29057888696727</v>
@@ -6411,25 +6411,25 @@
         <v>1610.693118163191</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.693118163191</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.693118163191</v>
+        <v>1239.559373233857</v>
       </c>
       <c r="U28" t="n">
-        <v>1321.573332492413</v>
+        <v>950.4395875630787</v>
       </c>
       <c r="V28" t="n">
-        <v>1066.888844286526</v>
+        <v>695.7550993571919</v>
       </c>
       <c r="W28" t="n">
-        <v>1066.888844286526</v>
+        <v>695.7550993571919</v>
       </c>
       <c r="X28" t="n">
-        <v>1066.888844286526</v>
+        <v>695.7550993571919</v>
       </c>
       <c r="Y28" t="n">
-        <v>846.096265142996</v>
+        <v>695.7550993571919</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.9019371164663</v>
+        <v>1648.726494724433</v>
       </c>
       <c r="C29" t="n">
-        <v>267.9019371164663</v>
+        <v>1279.763977784021</v>
       </c>
       <c r="D29" t="n">
-        <v>267.9019371164663</v>
+        <v>921.4982791772704</v>
       </c>
       <c r="E29" t="n">
-        <v>267.9019371164663</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="F29" t="n">
-        <v>267.9019371164663</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="G29" t="n">
-        <v>267.9019371164663</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I29" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>189.7538958209956</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K29" t="n">
-        <v>437.3637422189608</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L29" t="n">
-        <v>781.447413693927</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M29" t="n">
-        <v>1195.976233479671</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N29" t="n">
         <v>1621.826371324919</v>
@@ -6493,22 +6493,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2355.524205837086</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.938410031164</v>
+        <v>2412.331584961324</v>
       </c>
       <c r="V29" t="n">
-        <v>1770.875522687594</v>
+        <v>2412.331584961324</v>
       </c>
       <c r="W29" t="n">
-        <v>1418.10686741748</v>
+        <v>2412.331584961324</v>
       </c>
       <c r="X29" t="n">
-        <v>1044.6411091564</v>
+        <v>2038.865826700244</v>
       </c>
       <c r="Y29" t="n">
-        <v>654.5017771805881</v>
+        <v>1648.726494724433</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>664.2232739392879</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C31" t="n">
-        <v>664.2232739392879</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D31" t="n">
-        <v>514.1066345269521</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E31" t="n">
-        <v>366.193540944559</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F31" t="n">
-        <v>219.3035934466487</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G31" t="n">
         <v>51.29057888696726</v>
@@ -6648,25 +6648,25 @@
         <v>1610.693118163191</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163191</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.693118163191</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U31" t="n">
-        <v>1610.693118163191</v>
+        <v>1044.174367171362</v>
       </c>
       <c r="V31" t="n">
-        <v>1356.008629957304</v>
+        <v>789.4898789654753</v>
       </c>
       <c r="W31" t="n">
-        <v>1294.653868811075</v>
+        <v>500.0727089285147</v>
       </c>
       <c r="X31" t="n">
-        <v>1066.664317913058</v>
+        <v>272.0831580304974</v>
       </c>
       <c r="Y31" t="n">
-        <v>845.8717387695276</v>
+        <v>51.29057888696726</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>918.593146558723</v>
+        <v>1585.751115457676</v>
       </c>
       <c r="C32" t="n">
-        <v>878.0404223285514</v>
+        <v>1585.751115457676</v>
       </c>
       <c r="D32" t="n">
-        <v>878.0404223285514</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="E32" t="n">
-        <v>878.0404223285514</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0545175389437</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I32" t="n">
         <v>51.29057888696726</v>
@@ -6709,7 +6709,7 @@
         <v>774.34192141318</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N32" t="n">
         <v>1621.826371324919</v>
@@ -6736,16 +6736,16 @@
         <v>1975.890447433488</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.827560089917</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="W32" t="n">
-        <v>1292.058904819803</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="X32" t="n">
-        <v>918.593146558723</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="Y32" t="n">
-        <v>918.593146558723</v>
+        <v>1585.751115457676</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>235.538677389286</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K33" t="n">
-        <v>656.6826967703352</v>
+        <v>290.4181578204565</v>
       </c>
       <c r="L33" t="n">
-        <v>944.6469799529976</v>
+        <v>578.382441003119</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.044584201669</v>
+        <v>933.7800452517904</v>
       </c>
       <c r="N33" t="n">
-        <v>1679.257150431974</v>
+        <v>1312.992611482095</v>
       </c>
       <c r="O33" t="n">
-        <v>2003.942768145731</v>
+        <v>1666.253678985614</v>
       </c>
       <c r="P33" t="n">
-        <v>2245.19853490744</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>542.6309140473334</v>
+        <v>789.6963910637544</v>
       </c>
       <c r="C34" t="n">
-        <v>514.1066345269521</v>
+        <v>620.7602081358475</v>
       </c>
       <c r="D34" t="n">
-        <v>514.1066345269521</v>
+        <v>620.7602081358475</v>
       </c>
       <c r="E34" t="n">
-        <v>366.193540944559</v>
+        <v>472.8471145534544</v>
       </c>
       <c r="F34" t="n">
-        <v>219.3035934466487</v>
+        <v>325.957167055544</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I34" t="n">
         <v>51.29057888696726</v>
@@ -6882,28 +6882,28 @@
         <v>1610.693118163191</v>
       </c>
       <c r="R34" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S34" t="n">
-        <v>1309.824493440365</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T34" t="n">
-        <v>1086.732572290181</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="U34" t="n">
-        <v>1086.732572290181</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="V34" t="n">
-        <v>832.0480840842939</v>
+        <v>1356.008629957304</v>
       </c>
       <c r="W34" t="n">
-        <v>542.6309140473334</v>
+        <v>1066.591459920344</v>
       </c>
       <c r="X34" t="n">
-        <v>542.6309140473334</v>
+        <v>1010.488970207285</v>
       </c>
       <c r="Y34" t="n">
-        <v>542.6309140473334</v>
+        <v>789.6963910637544</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>861.8698982662936</v>
+        <v>1847.166318653365</v>
       </c>
       <c r="C35" t="n">
-        <v>492.9073813258819</v>
+        <v>1847.166318653365</v>
       </c>
       <c r="D35" t="n">
-        <v>134.6416827191314</v>
+        <v>1488.900620046614</v>
       </c>
       <c r="E35" t="n">
-        <v>49.81782892870196</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="F35" t="n">
-        <v>49.81782892870196</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870196</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I35" t="n">
         <v>49.81782892870196</v>
@@ -6964,25 +6964,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T35" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="U35" t="n">
-        <v>2364.843483837421</v>
+        <v>2237.305650629176</v>
       </c>
       <c r="V35" t="n">
-        <v>2364.843483837421</v>
+        <v>2237.305650629176</v>
       </c>
       <c r="W35" t="n">
-        <v>2012.074828567307</v>
+        <v>2237.305650629176</v>
       </c>
       <c r="X35" t="n">
-        <v>1638.609070306227</v>
+        <v>2237.305650629176</v>
       </c>
       <c r="Y35" t="n">
-        <v>1248.469738330415</v>
+        <v>1847.166318653365</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K36" t="n">
-        <v>583.04519885707</v>
+        <v>413.775532849196</v>
       </c>
       <c r="L36" t="n">
-        <v>871.0094820397325</v>
+        <v>701.7398160318585</v>
       </c>
       <c r="M36" t="n">
-        <v>1226.407086288404</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.619652518709</v>
+        <v>1673.633053273217</v>
       </c>
       <c r="O36" t="n">
-        <v>1930.305270232466</v>
+        <v>1998.318670986974</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.561036994175</v>
+        <v>2239.574437748683</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R36" t="n">
         <v>2490.891446435098</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.81782892870196</v>
+        <v>575.3474575176069</v>
       </c>
       <c r="C37" t="n">
-        <v>49.81782892870196</v>
+        <v>406.4112745897</v>
       </c>
       <c r="D37" t="n">
-        <v>49.81782892870196</v>
+        <v>406.4112745897</v>
       </c>
       <c r="E37" t="n">
-        <v>49.81782892870196</v>
+        <v>406.4112745897</v>
       </c>
       <c r="F37" t="n">
-        <v>49.81782892870196</v>
+        <v>406.4112745897</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870196</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870196</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I37" t="n">
         <v>49.81782892870196</v>
@@ -7119,28 +7119,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S37" t="n">
-        <v>1412.128928574975</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T37" t="n">
-        <v>1189.03700742479</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="U37" t="n">
-        <v>899.9172217540118</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="V37" t="n">
-        <v>899.9172217540118</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="W37" t="n">
-        <v>610.5000517170513</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="X37" t="n">
-        <v>382.510500819034</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.7179216755038</v>
+        <v>575.3474575176069</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1162.834297074108</v>
+        <v>915.2474953566364</v>
       </c>
       <c r="C38" t="n">
-        <v>793.8717801336968</v>
+        <v>915.2474953566364</v>
       </c>
       <c r="D38" t="n">
-        <v>435.6060815269462</v>
+        <v>915.2474953566364</v>
       </c>
       <c r="E38" t="n">
-        <v>49.81782892870198</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I38" t="n">
         <v>49.81782892870198</v>
@@ -7201,25 +7201,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T38" t="n">
-        <v>2292.342124384156</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U38" t="n">
-        <v>2292.342124384156</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V38" t="n">
-        <v>2292.342124384156</v>
+        <v>2044.755322666684</v>
       </c>
       <c r="W38" t="n">
-        <v>1939.573469114042</v>
+        <v>1691.98666739657</v>
       </c>
       <c r="X38" t="n">
-        <v>1939.573469114042</v>
+        <v>1691.98666739657</v>
       </c>
       <c r="Y38" t="n">
-        <v>1549.43413713823</v>
+        <v>1301.847335420758</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>909.7854722244628</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C39" t="n">
-        <v>735.3324429433358</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D39" t="n">
-        <v>586.3980332820845</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E39" t="n">
-        <v>427.1605782766289</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F39" t="n">
-        <v>280.6260203035139</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8929411728695</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H39" t="n">
         <v>49.81782892870198</v>
@@ -7256,25 +7256,25 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>560.6342506504917</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L39" t="n">
-        <v>848.5985338331542</v>
+        <v>871.0094820397334</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.996138081826</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N39" t="n">
-        <v>1583.20870431213</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O39" t="n">
-        <v>1907.894322025887</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P39" t="n">
-        <v>2149.150088787596</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R39" t="n">
         <v>2490.891446435099</v>
@@ -7283,22 +7283,22 @@
         <v>2354.581362957453</v>
       </c>
       <c r="T39" t="n">
-        <v>2211.094260761814</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U39" t="n">
-        <v>1983.002073174962</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V39" t="n">
-        <v>1747.849964943219</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W39" t="n">
-        <v>1493.612608215017</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1285.761108009485</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y39" t="n">
-        <v>1078.000809244531</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>541.1581640890679</v>
+        <v>937.1985917043911</v>
       </c>
       <c r="C40" t="n">
-        <v>541.1581640890679</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="D40" t="n">
-        <v>391.0415246767321</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E40" t="n">
-        <v>243.128431094339</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F40" t="n">
-        <v>96.23848359642867</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870198</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870198</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I40" t="n">
         <v>49.81782892870198</v>
@@ -7359,25 +7359,25 @@
         <v>1505.443183112051</v>
       </c>
       <c r="S40" t="n">
-        <v>1308.3517434821</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="T40" t="n">
-        <v>1085.259822331915</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U40" t="n">
-        <v>1085.259822331915</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="V40" t="n">
-        <v>830.5753341260285</v>
+        <v>1027.66677375598</v>
       </c>
       <c r="W40" t="n">
-        <v>541.1581640890679</v>
+        <v>937.1985917043911</v>
       </c>
       <c r="X40" t="n">
-        <v>541.1581640890679</v>
+        <v>937.1985917043911</v>
       </c>
       <c r="Y40" t="n">
-        <v>541.1581640890679</v>
+        <v>937.1985917043911</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1215.554503256966</v>
+        <v>1601.238393600529</v>
       </c>
       <c r="C41" t="n">
-        <v>846.5919863165537</v>
+        <v>1601.238393600529</v>
       </c>
       <c r="D41" t="n">
-        <v>846.5919863165537</v>
+        <v>1331.011434008613</v>
       </c>
       <c r="E41" t="n">
-        <v>460.8037337183095</v>
+        <v>945.2231814103686</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870195</v>
+        <v>534.237276620761</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870195</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870195</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I41" t="n">
         <v>49.81782892870195</v>
@@ -7417,22 +7417,22 @@
         <v>428.7854999799483</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549141</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085905</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P41" t="n">
         <v>2299.347327962847</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561744</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R41" t="n">
         <v>2490.891446435097</v>
@@ -7441,22 +7441,22 @@
         <v>2364.843483837421</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326143</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="U41" t="n">
-        <v>1954.922998591201</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="V41" t="n">
-        <v>1954.922998591201</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="W41" t="n">
-        <v>1602.154343321087</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="X41" t="n">
-        <v>1602.154343321087</v>
+        <v>1991.377725576341</v>
       </c>
       <c r="Y41" t="n">
-        <v>1602.154343321087</v>
+        <v>1601.238393600529</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>234.0659274310206</v>
       </c>
       <c r="K42" t="n">
-        <v>583.0451988570699</v>
+        <v>675.5961174916487</v>
       </c>
       <c r="L42" t="n">
-        <v>871.0094820397323</v>
+        <v>1056.575048691644</v>
       </c>
       <c r="M42" t="n">
-        <v>1226.407086288404</v>
+        <v>1411.972652940315</v>
       </c>
       <c r="N42" t="n">
-        <v>1605.619652518708</v>
+        <v>1791.18521917062</v>
       </c>
       <c r="O42" t="n">
-        <v>1930.305270232465</v>
+        <v>2115.870836884377</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.561036994174</v>
+        <v>2357.126603646086</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.891446435097</v>
+        <v>2468.480498228518</v>
       </c>
       <c r="R42" t="n">
         <v>2490.891446435097</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>512.6338845686869</v>
+        <v>738.5469880852013</v>
       </c>
       <c r="C43" t="n">
-        <v>512.6338845686869</v>
+        <v>738.5469880852013</v>
       </c>
       <c r="D43" t="n">
-        <v>512.6338845686869</v>
+        <v>588.4303486728655</v>
       </c>
       <c r="E43" t="n">
-        <v>364.7207909862937</v>
+        <v>440.5172550904724</v>
       </c>
       <c r="F43" t="n">
-        <v>217.8308434883834</v>
+        <v>293.627307592562</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870195</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870195</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I43" t="n">
         <v>49.81782892870195</v>
@@ -7596,25 +7596,25 @@
         <v>1505.443183112051</v>
       </c>
       <c r="S43" t="n">
-        <v>1308.3517434821</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="T43" t="n">
-        <v>1085.259822331915</v>
+        <v>1282.351261961866</v>
       </c>
       <c r="U43" t="n">
-        <v>796.1400366611368</v>
+        <v>993.2314762910881</v>
       </c>
       <c r="V43" t="n">
-        <v>541.45554845525</v>
+        <v>738.5469880852013</v>
       </c>
       <c r="W43" t="n">
-        <v>512.6338845686869</v>
+        <v>738.5469880852013</v>
       </c>
       <c r="X43" t="n">
-        <v>512.6338845686869</v>
+        <v>738.5469880852013</v>
       </c>
       <c r="Y43" t="n">
-        <v>512.6338845686869</v>
+        <v>738.5469880852013</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1181.232979331143</v>
+        <v>987.9178608639697</v>
       </c>
       <c r="C44" t="n">
-        <v>1181.232979331143</v>
+        <v>618.9553439235581</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.232979331143</v>
+        <v>618.9553439235581</v>
       </c>
       <c r="E44" t="n">
-        <v>1181.232979331143</v>
+        <v>233.1670913253138</v>
       </c>
       <c r="F44" t="n">
-        <v>770.2470745415359</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="G44" t="n">
-        <v>354.4831358895594</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="H44" t="n">
         <v>49.81782892870195</v>
@@ -7654,46 +7654,46 @@
         <v>428.7854999799483</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549141</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085905</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317522</v>
       </c>
       <c r="P44" t="n">
         <v>2299.347327962847</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561744</v>
       </c>
       <c r="R44" t="n">
         <v>2490.891446435097</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="T44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="U44" t="n">
-        <v>2255.20385392064</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="V44" t="n">
-        <v>1924.140966577069</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="W44" t="n">
-        <v>1571.372311306955</v>
+        <v>2138.122791164983</v>
       </c>
       <c r="X44" t="n">
-        <v>1571.372311306955</v>
+        <v>1764.657032903903</v>
       </c>
       <c r="Y44" t="n">
-        <v>1181.232979331143</v>
+        <v>1374.517700928091</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416484</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605214</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D45" t="n">
-        <v>535.7508602992701</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>376.5134052938146</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F45" t="n">
-        <v>229.9788473206996</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G45" t="n">
-        <v>93.24576819005523</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H45" t="n">
-        <v>49.81782892870195</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I45" t="n">
         <v>49.81782892870195</v>
@@ -7730,49 +7730,49 @@
         <v>234.0659274310206</v>
       </c>
       <c r="K45" t="n">
-        <v>583.0451988570699</v>
+        <v>675.5961174916487</v>
       </c>
       <c r="L45" t="n">
-        <v>871.0094820397323</v>
+        <v>963.560400674311</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.407086288404</v>
+        <v>1318.958004922982</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.619652518708</v>
+        <v>1698.170571153287</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232465</v>
+        <v>2022.856188867044</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994174</v>
+        <v>2264.111955628753</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435097</v>
+        <v>2468.480498228518</v>
       </c>
       <c r="R45" t="n">
         <v>2490.891446435097</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087778999</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192147</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.965435232203</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.11393502667</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261716</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>661.6088351675888</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="C46" t="n">
-        <v>661.6088351675888</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="D46" t="n">
-        <v>661.6088351675888</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="E46" t="n">
-        <v>513.6957415851957</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="F46" t="n">
-        <v>366.8057940872853</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="G46" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="H46" t="n">
         <v>49.81782892870195</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R46" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1428.505030194438</v>
+        <v>1412.128928574974</v>
       </c>
       <c r="T46" t="n">
-        <v>1205.413109044254</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="U46" t="n">
-        <v>916.2933233734757</v>
+        <v>1003.557502899807</v>
       </c>
       <c r="V46" t="n">
-        <v>661.6088351675888</v>
+        <v>748.8730146939197</v>
       </c>
       <c r="W46" t="n">
-        <v>661.6088351675888</v>
+        <v>459.455844656959</v>
       </c>
       <c r="X46" t="n">
-        <v>661.6088351675888</v>
+        <v>231.4662937589416</v>
       </c>
       <c r="Y46" t="n">
-        <v>661.6088351675888</v>
+        <v>231.4662937589416</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>331.849848292954</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>170.979460614015</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>49.20690005691029</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053382</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>3.73253570401247</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>170.9794606140146</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>263.7353825697125</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>239.6798654165476</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>22.88434839053384</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>170.9794606140141</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>243.4124011205607</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053383</v>
+        <v>22.88434839053384</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>170.9794606140142</v>
       </c>
       <c r="L21" t="n">
-        <v>212.3901924994342</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>294.7575911908382</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>22.88434839053383</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>7.177264930047954</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>72.89368480303006</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>243.8731454170448</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.8478747195285</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.2358239962577</v>
+        <v>243.8731454170448</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>7.1772649300475</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>7.177264930047556</v>
       </c>
       <c r="N32" t="n">
-        <v>7.1772649300475</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>243.8731454170443</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>28.86409069672931</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>170.9794606140142</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>239.6798654165475</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>118.7395615125288</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>148.342139193228</v>
+        <v>170.9794606140151</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>170.9794606140141</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>93.95418991649768</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.88434839053384</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>170.9794606140141</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>93.95418991649805</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053384</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>204.3699079822483</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>225.132084559588</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
         <v>301.6186538912489</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>50.14070125298476</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.56167804973649</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>37.59664329201098</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>195.1205252336517</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>201.9618847229371</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717002</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.53808124164911</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23591,46 +23591,46 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>71.44310047545002</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>113.5937390818625</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>9.734251609071521</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>236.0951461434439</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968169</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24.09254853747069</v>
+        <v>124.7874829717002</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>50.14070125298477</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>50.14070125298596</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>147.485201092913</v>
@@ -23940,16 +23940,16 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.95994387236098</v>
+        <v>140.8909625766241</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>46.35866924520019</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>125.2461207106726</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>50.14070125298564</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.44310047544998</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>49.45161895474391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>87.31179286245109</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>333.6728920597549</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>216.2825060416586</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.7074174033432</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>111.5555884423239</v>
       </c>
       <c r="H25" t="n">
         <v>147.485201092913</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>147.0634828678768</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.48590678495026</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
         <v>251.0499378478622</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>22.65473041230668</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
         <v>105.5870378728063</v>
@@ -24651,10 +24651,10 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>48.55911969229356</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>87.17340924404485</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>100.3745520546937</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
@@ -24888,19 +24888,19 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>141.3565515044941</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>225.7817848018238</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>325.1256947831376</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>23.63706326378014</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>139.0077843734504</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
         <v>286.2285878140705</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>170.1681905731085</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>297.9547548197366</v>
+        <v>145.3083597136275</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.05088836260343</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>66.37761217541585</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>411.6062992654567</v>
@@ -25411,7 +25411,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>10.35086229573139</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>10.86497891110434</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I39" t="n">
         <v>21.30239922246437</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>50.1407012529848</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>120.3764362930352</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>196.9594981055183</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>87.15835162468608</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968169</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>52.14334858026956</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>30.54853840966948</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>257.9895510888936</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>225.3602759690657</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
         <v>67.96895394968169</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717002</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>142.5067042302496</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>50.14070125298608</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>71.44310047545042</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
-        <v>118.9517538452153</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.603878334337</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>706900.389654728</v>
+        <v>706900.3896547277</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>719591.7655152242</v>
+        <v>719591.7655152243</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719591.7655152242</v>
+        <v>719591.7655152241</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719591.7655152241</v>
+        <v>719591.7655152242</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>719591.7655152242</v>
+        <v>719591.7655152241</v>
       </c>
     </row>
     <row r="13">
@@ -26319,43 +26319,43 @@
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.8032302229</v>
       </c>
       <c r="E2" t="n">
         <v>361414.0454873642</v>
       </c>
       <c r="F2" t="n">
-        <v>361414.0454873644</v>
+        <v>361414.0454873643</v>
       </c>
       <c r="G2" t="n">
         <v>361414.0454873643</v>
       </c>
       <c r="H2" t="n">
-        <v>361414.0454873644</v>
+        <v>361414.0454873646</v>
       </c>
       <c r="I2" t="n">
         <v>366643.6804421672</v>
       </c>
       <c r="J2" t="n">
-        <v>366643.6804421673</v>
+        <v>366643.6804421672</v>
       </c>
       <c r="K2" t="n">
-        <v>366643.6804421673</v>
+        <v>366643.6804421672</v>
       </c>
       <c r="L2" t="n">
-        <v>366643.6804421672</v>
+        <v>366643.6804421671</v>
       </c>
       <c r="M2" t="n">
+        <v>361414.0454873642</v>
+      </c>
+      <c r="N2" t="n">
+        <v>361414.0454873642</v>
+      </c>
+      <c r="O2" t="n">
         <v>361414.0454873643</v>
       </c>
-      <c r="N2" t="n">
-        <v>361414.0454873643</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>361414.0454873642</v>
-      </c>
-      <c r="P2" t="n">
-        <v>361414.0454873643</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761238</v>
+        <v>924651.5793761236</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468588</v>
+        <v>150597.3382468587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>14698.07011042799</v>
       </c>
       <c r="G4" t="n">
-        <v>14698.070110428</v>
+        <v>14698.07011042798</v>
       </c>
       <c r="H4" t="n">
         <v>14698.07011042798</v>
@@ -26444,10 +26444,10 @@
         <v>17379.31851853784</v>
       </c>
       <c r="K4" t="n">
+        <v>17379.31851853783</v>
+      </c>
+      <c r="L4" t="n">
         <v>17379.31851853784</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17379.31851853783</v>
       </c>
       <c r="M4" t="n">
         <v>14698.07011042798</v>
@@ -26459,7 +26459,7 @@
         <v>14698.07011042798</v>
       </c>
       <c r="P4" t="n">
-        <v>14698.07011042798</v>
+        <v>14698.07011042799</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>57906.4105042567</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.4105042567</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425671</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48497.03911515528</v>
+        <v>48536.7613159683</v>
       </c>
       <c r="C6" t="n">
-        <v>48497.03911515534</v>
+        <v>48536.7613159683</v>
       </c>
       <c r="D6" t="n">
-        <v>48497.03911515546</v>
+        <v>48536.76131596824</v>
       </c>
       <c r="E6" t="n">
-        <v>-641309.1401880779</v>
+        <v>-636388.7270719076</v>
       </c>
       <c r="F6" t="n">
-        <v>283342.4391880465</v>
+        <v>288262.8523042162</v>
       </c>
       <c r="G6" t="n">
-        <v>283342.4391880461</v>
+        <v>288262.8523042163</v>
       </c>
       <c r="H6" t="n">
-        <v>283342.4391880461</v>
+        <v>288262.8523042165</v>
       </c>
       <c r="I6" t="n">
-        <v>280093.9979522591</v>
+        <v>284818.2997576243</v>
       </c>
       <c r="J6" t="n">
-        <v>284989.4372229076</v>
+        <v>289713.7390282727</v>
       </c>
       <c r="K6" t="n">
-        <v>284989.4372229077</v>
+        <v>289713.7390282727</v>
       </c>
       <c r="L6" t="n">
-        <v>284989.4372229076</v>
+        <v>289713.7390282726</v>
       </c>
       <c r="M6" t="n">
-        <v>132745.1009411873</v>
+        <v>137665.5140573574</v>
       </c>
       <c r="N6" t="n">
-        <v>283342.439188046</v>
+        <v>288262.8523042162</v>
       </c>
       <c r="O6" t="n">
-        <v>283342.439188046</v>
+        <v>288262.8523042163</v>
       </c>
       <c r="P6" t="n">
-        <v>283342.4391880461</v>
+        <v>288262.8523042162</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="F3" t="n">
         <v>919.489014607487</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.489014607487</v>
       </c>
       <c r="H3" t="n">
         <v>919.4890146074871</v>
@@ -26804,7 +26804,7 @@
         <v>622.7228616087745</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087743</v>
       </c>
       <c r="H4" t="n">
         <v>622.7228616087745</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304585</v>
+        <v>604.3134871304583</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H11" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I11" t="n">
         <v>142.5069356207242</v>
@@ -31770,10 +31770,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O11" t="n">
         <v>622.8082601404915</v>
@@ -31782,13 +31782,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T11" t="n">
         <v>16.18115843796693</v>
@@ -31837,13 +31837,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K12" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L12" t="n">
         <v>429.4273930956949</v>
@@ -31855,10 +31855,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q12" t="n">
         <v>252.460455482418</v>
@@ -31867,7 +31867,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T12" t="n">
         <v>7.971796268153589</v>
@@ -31940,16 +31940,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U13" t="n">
         <v>0.09044154242040867</v>
@@ -32235,34 +32235,34 @@
         <v>142.5069356207242</v>
       </c>
       <c r="J17" t="n">
-        <v>313.7305758936371</v>
+        <v>313.730575893637</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025211</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861146</v>
       </c>
       <c r="M17" t="n">
         <v>649.0622128088318</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857303</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404914</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515573</v>
       </c>
       <c r="Q17" t="n">
         <v>399.1737460349518</v>
       </c>
       <c r="R17" t="n">
-        <v>232.1963892013571</v>
+        <v>232.196389201357</v>
       </c>
       <c r="S17" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454518</v>
       </c>
       <c r="T17" t="n">
         <v>16.18115843796693</v>
@@ -32320,19 +32320,19 @@
         <v>319.3662929321118</v>
       </c>
       <c r="L18" t="n">
-        <v>429.4273930956949</v>
+        <v>429.4273930956948</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610803</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755601</v>
       </c>
       <c r="O18" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623806</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130261</v>
       </c>
       <c r="Q18" t="n">
         <v>252.460455482418</v>
@@ -32341,10 +32341,10 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096891</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153587</v>
       </c>
       <c r="U18" t="n">
         <v>0.1301163699916256</v>
@@ -32387,10 +32387,10 @@
         <v>1.658094944374157</v>
       </c>
       <c r="H19" t="n">
-        <v>14.74197141452661</v>
+        <v>14.7419714145266</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445193</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
@@ -32399,16 +32399,16 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L19" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572269</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258507</v>
       </c>
       <c r="N19" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604563</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920854</v>
       </c>
       <c r="P19" t="n">
         <v>200.5390467268525</v>
@@ -32423,10 +32423,10 @@
         <v>28.89607280332052</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598667</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040865</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L11" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O11" t="n">
         <v>392.7100487188047</v>
@@ -35430,10 +35430,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K12" t="n">
-        <v>181.5248539577529</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158207</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="M12" t="n">
         <v>358.9874790390621</v>
@@ -35503,13 +35503,13 @@
         <v>383.042996192227</v>
       </c>
       <c r="O12" t="n">
-        <v>498.9447310319513</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P12" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322456</v>
+        <v>161.6855814533068</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K13" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L13" t="n">
         <v>274.1035227175431</v>
@@ -35588,7 +35588,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>63.75069076998617</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K15" t="n">
-        <v>181.5248539577528</v>
+        <v>352.5043145717673</v>
       </c>
       <c r="L15" t="n">
         <v>290.8730133158206</v>
       </c>
       <c r="M15" t="n">
-        <v>622.7228616087745</v>
+        <v>358.987479039062</v>
       </c>
       <c r="N15" t="n">
-        <v>622.7228616087745</v>
+        <v>383.0429961922268</v>
       </c>
       <c r="O15" t="n">
         <v>327.9652704179362</v>
@@ -35746,7 +35746,7 @@
         <v>243.6926936986959</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.4786813963964</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669507</v>
       </c>
       <c r="K17" t="n">
         <v>250.1109559575406</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161274</v>
       </c>
       <c r="M17" t="n">
         <v>418.7159795815591</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891394</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188046</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962879</v>
+        <v>300.3194450962878</v>
       </c>
       <c r="Q17" t="n">
         <v>176.8680561605023</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722493</v>
+        <v>16.6108513872249</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K18" t="n">
-        <v>181.5248539577528</v>
+        <v>352.5043145717669</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158206</v>
       </c>
       <c r="M18" t="n">
-        <v>622.7228616087747</v>
+        <v>358.987479039062</v>
       </c>
       <c r="N18" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922268</v>
       </c>
       <c r="O18" t="n">
-        <v>571.377671538497</v>
+        <v>327.9652704179362</v>
       </c>
       <c r="P18" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986959</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058009</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295873</v>
@@ -36050,16 +36050,16 @@
         <v>274.1035227175431</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876913</v>
       </c>
       <c r="N19" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396849</v>
       </c>
       <c r="O19" t="n">
         <v>258.9493115061251</v>
       </c>
       <c r="P19" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917459</v>
       </c>
       <c r="Q19" t="n">
         <v>52.68079795403615</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K21" t="n">
-        <v>181.5248539577528</v>
+        <v>352.504314571767</v>
       </c>
       <c r="L21" t="n">
-        <v>503.2632058152549</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M21" t="n">
         <v>358.9874790390621</v>
@@ -36214,13 +36214,13 @@
         <v>383.042996192227</v>
       </c>
       <c r="O21" t="n">
-        <v>622.7228616087745</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P21" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575406</v>
+        <v>257.2882208875886</v>
       </c>
       <c r="L23" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M23" t="n">
-        <v>491.6096643845891</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N23" t="n">
         <v>430.1516543891395</v>
@@ -36381,7 +36381,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722493</v>
+        <v>82.32727126020737</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703314</v>
+        <v>425.3979993747976</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158207</v>
@@ -36457,10 +36457,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q24" t="n">
-        <v>279.326556115925</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K27" t="n">
-        <v>402.7606779540106</v>
+        <v>425.3979993747976</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158207</v>
@@ -36697,7 +36697,7 @@
         <v>322.5559691322455</v>
       </c>
       <c r="R27" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>139.8619362969983</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575406</v>
@@ -36843,7 +36843,7 @@
         <v>418.7159795815591</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891395</v>
+        <v>437.328919319187</v>
       </c>
       <c r="O29" t="n">
         <v>392.7100487188047</v>
@@ -37077,10 +37077,10 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815591</v>
+        <v>425.8932445116066</v>
       </c>
       <c r="N32" t="n">
-        <v>437.328919319187</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O32" t="n">
         <v>392.7100487188047</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>186.1091904063825</v>
+        <v>60.0181550659737</v>
       </c>
       <c r="K33" t="n">
-        <v>425.3979993747972</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158207</v>
@@ -37162,16 +37162,16 @@
         <v>383.042996192227</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179363</v>
+        <v>356.8293611146656</v>
       </c>
       <c r="P33" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386331</v>
       </c>
       <c r="Q33" t="n">
         <v>322.5559691322455</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K36" t="n">
-        <v>352.504314571767</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158207</v>
@@ -37396,7 +37396,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N36" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="O36" t="n">
         <v>327.9652704179363</v>
@@ -37405,10 +37405,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.5559691322455</v>
+        <v>231.2182429089253</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8669931509809</v>
+        <v>352.5043145717679</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158207</v>
@@ -37645,7 +37645,7 @@
         <v>322.5559691322455</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722513</v>
+        <v>16.6108513872249</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5043145717669</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158206</v>
+        <v>384.8272032323183</v>
       </c>
       <c r="M42" t="n">
         <v>358.987479039062</v>
@@ -37879,10 +37879,10 @@
         <v>243.6926936986959</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963964</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.63732142078698</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
-        <v>16.6108513872249</v>
+        <v>16.61085138722513</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5043145717669</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158206</v>
@@ -38116,10 +38116,10 @@
         <v>243.6926936986959</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322455</v>
+        <v>206.4328713128945</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078698</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
